--- a/medicine/Pharmacie/Usine_de_produits_pharmaceutiques_Grandval/Usine_de_produits_pharmaceutiques_Grandval.xlsx
+++ b/medicine/Pharmacie/Usine_de_produits_pharmaceutiques_Grandval/Usine_de_produits_pharmaceutiques_Grandval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ Usine de produits pharmaceutiques Grandval  était une ancienne usine de produits pharmaceutiques située à Reims, en France.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Usine de produits pharmaceutiques Grandval était située dans le département français de la Marne, sur la commune de Reims, 12 rue Féry.
 </t>
@@ -542,12 +556,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’usine de produits pharmaceutiques Grandval est créée, par Jean-Baptiste Grandval, en 1850 selon la date figurant sur le fronton du bâtiment situé 12 rue Féry à Reims.
 Son fils Louis Alexandre poursuivra cette activité jusque vers la fin du XXe siècle.
 Cette usine a été transformée en logements.
-Le bâtiment fait l’objet d’une inscription au portail du patrimoine culturel Site Champagne-Ardenne Grand Est[1].
+Le bâtiment fait l’objet d’une inscription au portail du patrimoine culturel Site Champagne-Ardenne Grand Est.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Jean-Baptiste Grandval</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Grandval (1803-1877) est né à La Houblonnière (Calvados) en 1803 et mort à Reims le 28 octobre 1877.
 Chimiste et pharmacien en chef des Hospices des Reims, il fut professeur de chimie et de pharmacie à l’École de médecine de Reims. 
@@ -611,10 +629,12 @@
           <t>Appareil à évaporer dans le vide</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Grandval est l’inventeur en 1849 d’un appareil à évaporer dans le vide, qui fit une révolution dans l’art de préparer les extraits pharmaceutiques et industriels. 
-Il fait l’objet d’un brevet d’invention de dix ans,  déposé le 21 mai 1850 et publié sous le no 247 au bulletin des lois de la République française de 1852[2].
+Il fait l’objet d’un brevet d’invention de dix ans,  déposé le 21 mai 1850 et publié sous le no 247 au bulletin des lois de la République française de 1852.
 </t>
         </is>
       </c>
